--- a/Резы/Респа для ИТ-71б на 2019 год.xlsx
+++ b/Резы/Респа для ИТ-71б на 2019 год.xlsx
@@ -65,15 +65,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -114,10 +114,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -159,35 +159,35 @@
       <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -208,42 +208,42 @@
       <left style="thin"/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
@@ -693,8 +693,8 @@
     <col width="85.09999999999999" customWidth="1" min="6" max="6"/>
     <col width="85.09999999999999" customWidth="1" min="7" max="7"/>
     <col width="85.09999999999999" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="29.5" customWidth="1" min="10" max="10"/>
+    <col width="9" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1">
@@ -817,7 +817,7 @@
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 205
 309
 309</t>
@@ -857,7 +857,7 @@
       <c r="H4" s="8" t="n"/>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 III</t>
         </is>
       </c>
@@ -926,7 +926,7 @@
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -956,7 +956,7 @@
       <c r="H7" s="17" t="n"/>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 237</t>
         </is>
       </c>
@@ -992,7 +992,7 @@
       <c r="H8" s="8" t="n"/>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 419</t>
         </is>
       </c>
@@ -1024,7 +1024,7 @@
       <c r="H9" s="13" t="n"/>
       <c r="I9" s="10" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J9" s="10" t="inlineStr">
@@ -1173,7 +1173,7 @@
       <c r="H14" s="8" t="n"/>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 IV</t>
         </is>
       </c>
@@ -1231,12 +1231,12 @@
       <c r="H16" s="13" t="n"/>
       <c r="I16" s="10" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J16" s="10" t="inlineStr">
         <is>
-          <t>Преображенский Ф.Ф.</t>
+          <t>Мерзоцид Г.Ч.</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 237</t>
         </is>
       </c>
@@ -1329,7 +1329,7 @@
       <c r="H19" s="8" t="n"/>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1517,7 +1517,7 @@
     <col width="93.8" customWidth="1" min="5" max="5"/>
     <col width="85.09999999999999" customWidth="1" min="6" max="6"/>
     <col width="56.1" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
     <col width="25" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
@@ -1648,7 +1648,7 @@
       <c r="G4" s="19" t="n"/>
       <c r="H4" s="10" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I4" s="10" t="inlineStr">
@@ -1685,7 +1685,7 @@
       <c r="G5" s="8" t="n"/>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 237</t>
         </is>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="G6" s="8" t="n"/>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 402</t>
         </is>
       </c>
@@ -1821,7 +1821,7 @@
       <c r="G9" s="8" t="n"/>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr">
@@ -1994,7 +1994,7 @@
       <c r="G15" s="19" t="n"/>
       <c r="H15" s="10" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I15" s="10" t="inlineStr">
@@ -2079,7 +2079,7 @@
       <c r="G18" s="8" t="n"/>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
@@ -2172,7 +2172,7 @@
       <c r="G21" s="5" t="n"/>
       <c r="H21" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал, 403</t>
+          <t>ХЗ, 403</t>
         </is>
       </c>
       <c r="I21" s="3" t="inlineStr">
@@ -2400,7 +2400,7 @@
       <c r="H4" s="8" t="n"/>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -2607,7 +2607,7 @@
       <c r="H10" s="5" t="n"/>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 237</t>
         </is>
       </c>
@@ -2755,7 +2755,7 @@
       <c r="H15" s="8" t="n"/>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -2884,7 +2884,7 @@
       <c r="H19" s="5" t="n"/>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал
+          <t>ХЗ
 237</t>
         </is>
       </c>
@@ -3198,7 +3198,7 @@
       <c r="G4" s="19" t="n"/>
       <c r="H4" s="10" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I4" s="10" t="inlineStr">
@@ -3448,7 +3448,7 @@
       <c r="G12" s="19" t="n"/>
       <c r="H12" s="10" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I12" s="10" t="inlineStr">
